--- a/IW2225_3조_테이블정의서 v1.3.xlsx
+++ b/IW2225_3조_테이블정의서 v1.3.xlsx
@@ -118,10 +118,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>[프로젝트 명]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>테이블 정의서</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1212,10 +1208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>버전 1.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>조성윤/인턴
 송민기/인턴
 이주현/인턴
@@ -1337,6 +1329,14 @@
 송민기/인턴
 이주현/인턴
 김원빈/인턴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>버전 1.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[회의실 예약관리 시스템 MBMS]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2042,13 +2042,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2063,8 +2060,38 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2074,6 +2101,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2085,42 +2121,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2520,7 +2520,7 @@
   <dimension ref="A2:V18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF15" sqref="AF15"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="5" spans="1:22" ht="27.6">
       <c r="O5" s="4" t="s">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="23.25" customHeight="1">
@@ -2672,7 +2672,7 @@
     </row>
     <row r="7" spans="1:22" ht="39.6">
       <c r="O7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="36.75" customHeight="1">
@@ -2680,7 +2680,7 @@
     </row>
     <row r="9" spans="1:22" ht="22.5" customHeight="1">
       <c r="O9" s="4" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="24.75" customHeight="1">
@@ -2688,165 +2688,155 @@
     </row>
     <row r="11" spans="1:22" ht="27.6">
       <c r="O11" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="18.75" customHeight="1">
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="80" t="s">
+      <c r="H13" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="80"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="80"/>
-      <c r="U13" s="80"/>
-      <c r="V13" s="80"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
+      <c r="S13" s="79"/>
+      <c r="T13" s="79"/>
+      <c r="U13" s="79"/>
+      <c r="V13" s="79"/>
     </row>
     <row r="14" spans="1:22" ht="18.75" customHeight="1">
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="77" t="s">
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="78" t="s">
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="78"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="77"/>
     </row>
     <row r="15" spans="1:22" ht="76.2" customHeight="1">
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="78" t="s">
+      <c r="H15" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="78"/>
-      <c r="J15" s="78"/>
-      <c r="K15" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="77" t="s">
-        <v>316</v>
-      </c>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="78"/>
-      <c r="T15" s="78"/>
-      <c r="U15" s="78"/>
-      <c r="V15" s="78"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="78" t="s">
+        <v>314</v>
+      </c>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="77"/>
     </row>
     <row r="16" spans="1:22" ht="18.75" customHeight="1">
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="78" t="s">
+      <c r="H16" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="78"/>
-      <c r="T16" s="78"/>
-      <c r="U16" s="78"/>
-      <c r="V16" s="78"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="77"/>
     </row>
     <row r="17" spans="5:22" ht="18.75" customHeight="1">
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="78" t="s">
+      <c r="H17" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="78"/>
-      <c r="J17" s="78"/>
-      <c r="K17" s="78"/>
-      <c r="L17" s="78"/>
-      <c r="M17" s="78"/>
-      <c r="N17" s="78"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77"/>
-      <c r="S17" s="78"/>
-      <c r="T17" s="78"/>
-      <c r="U17" s="78"/>
-      <c r="V17" s="78"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="78"/>
+      <c r="R17" s="78"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
     </row>
     <row r="18" spans="5:22" ht="34.200000000000003" customHeight="1">
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="78" t="s">
+      <c r="H18" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="78"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="79" t="s">
-        <v>287</v>
-      </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="77" t="s">
-        <v>315</v>
-      </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="78"/>
-      <c r="T18" s="78"/>
-      <c r="U18" s="78"/>
-      <c r="V18" s="78"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="83" t="s">
+        <v>285</v>
+      </c>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="78" t="s">
+        <v>313</v>
+      </c>
+      <c r="P18" s="78"/>
+      <c r="Q18" s="78"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="77"/>
+      <c r="T18" s="77"/>
+      <c r="U18" s="77"/>
+      <c r="V18" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="S15:V15"/>
-    <mergeCell ref="H13:V13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="S14:V14"/>
-    <mergeCell ref="K15:N15"/>
     <mergeCell ref="O18:R18"/>
     <mergeCell ref="O16:R16"/>
     <mergeCell ref="S18:V18"/>
@@ -2858,6 +2848,16 @@
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="K16:N16"/>
     <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="H13:V13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="K15:N15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.78" right="0.74803149606299213" top="0.9055118110236221" bottom="0.6692913385826772" header="0.51181102362204722" footer="0.39370078740157483"/>
@@ -2887,7 +2887,7 @@
   <sheetData>
     <row r="2" spans="1:8" ht="21">
       <c r="A2" s="84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>3</v>
@@ -2925,61 +2925,61 @@
         <v>11</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="69.599999999999994">
       <c r="B6" s="31" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F6" s="30"/>
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:8" ht="69.599999999999994">
       <c r="B7" s="31" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F7" s="30"/>
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:8" ht="69.599999999999994">
       <c r="B8" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="D8" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="D8" s="31" t="s">
+      <c r="E8" s="76" t="s">
         <v>315</v>
-      </c>
-      <c r="E8" s="76" t="s">
-        <v>317</v>
       </c>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
@@ -3121,212 +3121,212 @@
   <sheetData>
     <row r="2" spans="1:1" ht="25.2">
       <c r="A2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="31.2">
       <c r="A3" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="25.2">
       <c r="A4" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="21">
       <c r="A5" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="21">
       <c r="A9" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="25.2">
       <c r="A11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="25.2">
       <c r="A38" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3364,13 +3364,13 @@
         <v>6</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>25</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>7</v>
@@ -3381,16 +3381,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>77</v>
-      </c>
       <c r="E2" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="11"/>
@@ -3646,16 +3646,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>79</v>
-      </c>
       <c r="E3" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="11"/>
@@ -3911,16 +3911,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="11"/>
@@ -4176,16 +4176,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="11"/>
@@ -4441,16 +4441,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>85</v>
-      </c>
       <c r="E6" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="11"/>
@@ -4706,16 +4706,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>87</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="11"/>
@@ -4971,16 +4971,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>89</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="11"/>
@@ -5236,16 +5236,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F9" s="14"/>
       <c r="G9" s="11"/>
@@ -5501,16 +5501,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="11"/>
@@ -5766,16 +5766,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>94</v>
-      </c>
       <c r="E11" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="11"/>
@@ -6372,7 +6372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K134"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F20" sqref="F20:K20"/>
     </sheetView>
   </sheetViews>
@@ -6391,115 +6391,115 @@
   <sheetData>
     <row r="1" spans="2:11" ht="15" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="85" t="s">
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="96"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="2:11">
-      <c r="B3" s="90" t="s">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="92" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="94"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="90" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="95" t="s">
+      <c r="G4" s="92"/>
+      <c r="H4" s="92"/>
+      <c r="I4" s="92"/>
+      <c r="J4" s="92"/>
+      <c r="K4" s="93"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="90" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="95" t="s">
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="96"/>
-      <c r="K6" s="97"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
     </row>
     <row r="7" spans="2:11" ht="15">
       <c r="B7" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="D7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="E7" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="F7" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="G7" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="H7" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H7" s="46" t="s">
+      <c r="I7" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I7" s="46" t="s">
+      <c r="J7" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J7" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K7" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="15">
@@ -6516,20 +6516,20 @@
         <v>10</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J8" s="35"/>
       <c r="K8" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="15">
@@ -6537,29 +6537,29 @@
         <v>2</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G9" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="I9" s="34" t="s">
         <v>127</v>
-      </c>
-      <c r="I9" s="34" t="s">
-        <v>128</v>
       </c>
       <c r="J9" s="35"/>
       <c r="K9" s="39" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="15">
@@ -6567,25 +6567,25 @@
         <v>3</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G10" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>129</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I10" s="34" t="s">
-        <v>130</v>
       </c>
       <c r="J10" s="35"/>
       <c r="K10" s="40"/>
@@ -6595,29 +6595,29 @@
         <v>4</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G11" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I11" s="34" t="s">
         <v>131</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="34" t="s">
-        <v>132</v>
       </c>
       <c r="J11" s="35"/>
       <c r="K11" s="39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="15">
@@ -6625,29 +6625,29 @@
         <v>5</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G12" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H12" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="34" t="s">
+      <c r="I12" s="34" t="s">
         <v>134</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>135</v>
       </c>
       <c r="J12" s="35"/>
       <c r="K12" s="39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="15">
@@ -6655,25 +6655,25 @@
         <v>6</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G13" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="I13" s="34" t="s">
         <v>247</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>248</v>
       </c>
       <c r="J13" s="35"/>
       <c r="K13" s="40"/>
@@ -6683,25 +6683,25 @@
         <v>7</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G14" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I14" s="34" t="s">
         <v>249</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>250</v>
       </c>
       <c r="J14" s="35"/>
       <c r="K14" s="40"/>
@@ -6711,10 +6711,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>8</v>
@@ -6723,16 +6723,16 @@
         <v>8</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" s="34" t="s">
         <v>136</v>
-      </c>
-      <c r="J15" s="34" t="s">
-        <v>137</v>
       </c>
       <c r="K15" s="40"/>
     </row>
@@ -6741,142 +6741,142 @@
         <v>9</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G16" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H16" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>139</v>
-      </c>
       <c r="I16" s="43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J16" s="44"/>
       <c r="K16" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1"/>
     <row r="18" spans="2:11">
-      <c r="B18" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="102"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="85" t="s">
+      <c r="B18" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="87"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="92" t="s">
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="91" t="s">
         <v>141</v>
       </c>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="95" t="s">
-        <v>142</v>
-      </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="2:11">
-      <c r="B21" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G21" s="96"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="96"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="97"/>
+      <c r="B21" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="96"/>
-      <c r="H22" s="96"/>
-      <c r="I22" s="96"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
+      <c r="B22" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
     </row>
     <row r="23" spans="2:11" ht="15">
       <c r="B23" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="46" t="s">
+      <c r="D23" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="E23" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="46" t="s">
+      <c r="F23" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="G23" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="H23" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H23" s="46" t="s">
+      <c r="I23" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I23" s="46" t="s">
+      <c r="J23" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J23" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K23" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="15">
@@ -6890,23 +6890,23 @@
         <v>8</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H24" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J24" s="35"/>
       <c r="K24" s="49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="15">
@@ -6914,29 +6914,29 @@
         <v>2</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G25" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="34" t="s">
         <v>144</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>145</v>
       </c>
       <c r="J25" s="35"/>
       <c r="K25" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="26" spans="2:11" ht="15">
@@ -6944,29 +6944,29 @@
         <v>3</v>
       </c>
       <c r="C26" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="I26" s="34" t="s">
         <v>147</v>
-      </c>
-      <c r="I26" s="34" t="s">
-        <v>148</v>
       </c>
       <c r="J26" s="35"/>
       <c r="K26" s="49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.6" thickBot="1">
@@ -6974,142 +6974,142 @@
         <v>4</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G27" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I27" s="43" t="s">
         <v>149</v>
-      </c>
-      <c r="H27" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I27" s="43" t="s">
-        <v>150</v>
       </c>
       <c r="J27" s="44"/>
       <c r="K27" s="45" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="15" thickBot="1"/>
     <row r="29" spans="2:11">
-      <c r="B29" s="101" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="85" t="s">
+      <c r="B29" s="85" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="95"/>
+      <c r="H29" s="95"/>
+      <c r="I29" s="95"/>
+      <c r="J29" s="95"/>
+      <c r="K29" s="96"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="89"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="98" t="s">
-        <v>107</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="92" t="s">
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+      <c r="I30" s="98"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="99"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="88" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="89"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="90"/>
+      <c r="F31" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="95" t="s">
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="93"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91" t="s">
         <v>153</v>
       </c>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="97"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="97"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="93"/>
     </row>
     <row r="33" spans="2:11">
-      <c r="B33" s="98" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="99"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="97"/>
+      <c r="B33" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="93"/>
     </row>
     <row r="34" spans="2:11" ht="15">
       <c r="B34" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C34" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="46" t="s">
+      <c r="D34" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="46" t="s">
+      <c r="E34" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="46" t="s">
+      <c r="F34" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="46" t="s">
+      <c r="G34" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="46" t="s">
+      <c r="H34" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H34" s="46" t="s">
+      <c r="I34" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I34" s="46" t="s">
+      <c r="J34" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J34" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K34" s="48" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="2:11" ht="15">
@@ -7123,23 +7123,23 @@
         <v>8</v>
       </c>
       <c r="E35" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G35" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H35" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I35" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J35" s="35"/>
       <c r="K35" s="39" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="2:11" ht="15">
@@ -7147,7 +7147,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>8</v>
@@ -7156,19 +7156,19 @@
         <v>8</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H36" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I36" s="34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K36" s="39"/>
     </row>
@@ -7177,29 +7177,29 @@
         <v>3</v>
       </c>
       <c r="C37" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E37" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F37" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G37" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I37" s="34" t="s">
         <v>156</v>
-      </c>
-      <c r="H37" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I37" s="34" t="s">
-        <v>157</v>
       </c>
       <c r="J37" s="35"/>
       <c r="K37" s="39" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="15">
@@ -7207,29 +7207,29 @@
         <v>4</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E38" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G38" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H38" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I38" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J38" s="35"/>
       <c r="K38" s="39" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="15">
@@ -7237,29 +7237,29 @@
         <v>5</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E39" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G39" s="34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H39" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J39" s="35"/>
       <c r="K39" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="15">
@@ -7267,28 +7267,28 @@
         <v>6</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G40" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I40" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="H40" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I40" s="34" t="s">
-        <v>163</v>
-      </c>
       <c r="J40" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K40" s="40"/>
     </row>
@@ -7297,29 +7297,29 @@
         <v>7</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F41" s="33" t="s">
         <v>8</v>
       </c>
       <c r="G41" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="34" t="s">
+      <c r="I41" s="34" t="s">
         <v>165</v>
-      </c>
-      <c r="I41" s="34" t="s">
-        <v>166</v>
       </c>
       <c r="J41" s="35"/>
       <c r="K41" s="39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="2:11" ht="15">
@@ -7327,29 +7327,29 @@
         <v>8</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G42" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H42" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J42" s="35"/>
       <c r="K42" s="39" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="15">
@@ -7357,29 +7357,29 @@
         <v>9</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H43" s="34" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I43" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J43" s="35"/>
       <c r="K43" s="39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="15">
@@ -7387,29 +7387,29 @@
         <v>10</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G44" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H44" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J44" s="35"/>
       <c r="K44" s="39" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="2:11" ht="15.6" thickBot="1">
@@ -7417,142 +7417,142 @@
         <v>11</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F45" s="42" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J45" s="44"/>
       <c r="K45" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="2:11" ht="15" thickBot="1"/>
     <row r="47" spans="2:11">
-      <c r="B47" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="85" t="s">
+      <c r="B47" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="94" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="96"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="97" t="s">
         <v>173</v>
       </c>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="87"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="91"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="91"/>
-      <c r="F48" s="92" t="s">
+      <c r="G48" s="98"/>
+      <c r="H48" s="98"/>
+      <c r="I48" s="98"/>
+      <c r="J48" s="98"/>
+      <c r="K48" s="99"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="G48" s="93"/>
-      <c r="H48" s="93"/>
-      <c r="I48" s="93"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="94"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="91"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="96"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="97"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="93"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" s="91"/>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="96"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="97"/>
+      <c r="B50" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="93"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
-      <c r="F51" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G51" s="96"/>
-      <c r="H51" s="96"/>
-      <c r="I51" s="96"/>
-      <c r="J51" s="96"/>
-      <c r="K51" s="97"/>
+      <c r="B51" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="93"/>
     </row>
     <row r="52" spans="2:11" ht="15">
       <c r="B52" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="46" t="s">
+      <c r="D52" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="46" t="s">
+      <c r="E52" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E52" s="46" t="s">
+      <c r="F52" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F52" s="46" t="s">
+      <c r="G52" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="H52" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H52" s="46" t="s">
+      <c r="I52" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I52" s="46" t="s">
+      <c r="J52" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J52" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K52" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="15">
@@ -7566,23 +7566,23 @@
         <v>8</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G53" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H53" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I53" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J53" s="35"/>
       <c r="K53" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="2:11" ht="15">
@@ -7590,25 +7590,25 @@
         <v>2</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G54" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I54" s="34" t="s">
         <v>177</v>
-      </c>
-      <c r="H54" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>178</v>
       </c>
       <c r="J54" s="35"/>
       <c r="K54" s="37"/>
@@ -7618,140 +7618,140 @@
         <v>3</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F55" s="42" t="s">
         <v>8</v>
       </c>
       <c r="G55" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I55" s="43" t="s">
         <v>179</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>180</v>
       </c>
       <c r="J55" s="44"/>
       <c r="K55" s="50"/>
     </row>
     <row r="56" spans="2:11" ht="15" thickBot="1"/>
     <row r="57" spans="2:11">
-      <c r="B57" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="89"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="85" t="s">
+      <c r="B57" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="G57" s="95"/>
+      <c r="H57" s="95"/>
+      <c r="I57" s="95"/>
+      <c r="J57" s="95"/>
+      <c r="K57" s="96"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="103"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
+      <c r="F58" s="97" t="s">
         <v>181</v>
       </c>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="87"/>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="92" t="s">
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="99"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="93"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="91" t="s">
         <v>182</v>
       </c>
-      <c r="G58" s="93"/>
-      <c r="H58" s="93"/>
-      <c r="I58" s="93"/>
-      <c r="J58" s="93"/>
-      <c r="K58" s="94"/>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G59" s="96"/>
-      <c r="H59" s="96"/>
-      <c r="I59" s="96"/>
-      <c r="J59" s="96"/>
-      <c r="K59" s="97"/>
-    </row>
-    <row r="60" spans="2:11">
-      <c r="B60" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="91"/>
-      <c r="D60" s="91"/>
-      <c r="E60" s="91"/>
-      <c r="F60" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="G60" s="96"/>
-      <c r="H60" s="96"/>
-      <c r="I60" s="96"/>
-      <c r="J60" s="96"/>
-      <c r="K60" s="97"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="93"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="91"/>
-      <c r="F61" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G61" s="96"/>
-      <c r="H61" s="96"/>
-      <c r="I61" s="96"/>
-      <c r="J61" s="96"/>
-      <c r="K61" s="97"/>
+      <c r="B61" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="103"/>
+      <c r="F61" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="93"/>
     </row>
     <row r="62" spans="2:11" ht="15">
       <c r="B62" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="46" t="s">
+      <c r="D62" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="46" t="s">
+      <c r="E62" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="46" t="s">
+      <c r="F62" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F62" s="46" t="s">
+      <c r="G62" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G62" s="46" t="s">
+      <c r="H62" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H62" s="46" t="s">
+      <c r="I62" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="46" t="s">
+      <c r="J62" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J62" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K62" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="2:11" ht="15">
@@ -7759,28 +7759,28 @@
         <v>1</v>
       </c>
       <c r="C63" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G63" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H63" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I63" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J63" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K63" s="37"/>
     </row>
@@ -7789,28 +7789,28 @@
         <v>2</v>
       </c>
       <c r="C64" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E64" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F64" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G64" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H64" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I64" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J64" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K64" s="37"/>
     </row>
@@ -7819,144 +7819,144 @@
         <v>3</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G65" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H65" s="43" t="s">
         <v>9</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J65" s="44"/>
       <c r="K65" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="15.6" thickBot="1">
       <c r="K66" s="36"/>
     </row>
     <row r="67" spans="1:11">
-      <c r="B67" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
-      <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="87"/>
+      <c r="B67" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C67" s="101"/>
+      <c r="D67" s="101"/>
+      <c r="E67" s="101"/>
+      <c r="F67" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="96"/>
     </row>
     <row r="68" spans="1:11">
-      <c r="B68" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="92" t="s">
+      <c r="B68" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="K68" s="99"/>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" s="103"/>
+      <c r="D69" s="103"/>
+      <c r="E69" s="103"/>
+      <c r="F69" s="91" t="s">
         <v>187</v>
       </c>
-      <c r="G68" s="93"/>
-      <c r="H68" s="93"/>
-      <c r="I68" s="93"/>
-      <c r="J68" s="93"/>
-      <c r="K68" s="94"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="B69" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="95" t="s">
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="93"/>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="B70" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="G69" s="96"/>
-      <c r="H69" s="96"/>
-      <c r="I69" s="96"/>
-      <c r="J69" s="96"/>
-      <c r="K69" s="97"/>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="B70" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="95" t="s">
-        <v>189</v>
-      </c>
-      <c r="G70" s="96"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="96"/>
-      <c r="J70" s="96"/>
-      <c r="K70" s="97"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="93"/>
     </row>
     <row r="71" spans="1:11">
-      <c r="B71" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G71" s="96"/>
-      <c r="H71" s="96"/>
-      <c r="I71" s="96"/>
-      <c r="J71" s="96"/>
-      <c r="K71" s="97"/>
+      <c r="B71" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C71" s="103"/>
+      <c r="D71" s="103"/>
+      <c r="E71" s="103"/>
+      <c r="F71" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="93"/>
     </row>
     <row r="72" spans="1:11" ht="15">
       <c r="B72" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="46" t="s">
+      <c r="D72" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="E72" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="F72" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F72" s="46" t="s">
+      <c r="G72" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="H72" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H72" s="46" t="s">
+      <c r="I72" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I72" s="46" t="s">
+      <c r="J72" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J72" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K72" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="17.399999999999999">
@@ -7970,23 +7970,23 @@
         <v>8</v>
       </c>
       <c r="E73" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G73" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H73" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I73" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J73" s="35"/>
       <c r="K73" s="51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="17.399999999999999">
@@ -7994,28 +7994,28 @@
         <v>2</v>
       </c>
       <c r="C74" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E74" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G74" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H74" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J74" s="34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K74" s="51"/>
     </row>
@@ -8024,28 +8024,28 @@
         <v>3</v>
       </c>
       <c r="C75" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E75" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G75" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="H75" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I75" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="H75" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>193</v>
-      </c>
       <c r="J75" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K75" s="51"/>
     </row>
@@ -8054,29 +8054,29 @@
         <v>4</v>
       </c>
       <c r="C76" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E76" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G76" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="H76" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="H76" s="34" t="s">
+      <c r="I76" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="I76" s="34" t="s">
-        <v>196</v>
       </c>
       <c r="J76" s="35"/>
       <c r="K76" s="52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="17.399999999999999">
@@ -8085,29 +8085,29 @@
         <v>5</v>
       </c>
       <c r="C77" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E77" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F77" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G77" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" s="34" t="s">
         <v>198</v>
-      </c>
-      <c r="H77" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>199</v>
       </c>
       <c r="J77" s="35"/>
       <c r="K77" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="15">
@@ -8116,29 +8116,29 @@
         <v>6</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E78" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F78" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G78" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H78" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I78" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J78" s="35"/>
       <c r="K78" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="36" customFormat="1" ht="16.2" customHeight="1">
@@ -8147,25 +8147,25 @@
         <v>7</v>
       </c>
       <c r="C79" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E79" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F79" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G79" s="73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H79" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I79" s="73" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J79" s="73"/>
       <c r="K79" s="40"/>
@@ -8176,29 +8176,29 @@
         <v>8</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E80" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F80" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G80" s="73" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H80" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I80" s="73" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J80" s="73"/>
       <c r="K80" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="17.399999999999999">
@@ -8207,29 +8207,29 @@
         <v>9</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E81" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F81" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G81" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H81" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I81" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J81" s="35"/>
       <c r="K81" s="54" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="82" spans="1:11" s="36" customFormat="1">
@@ -8238,25 +8238,25 @@
         <v>10</v>
       </c>
       <c r="C82" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E82" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F82" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="73" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H82" s="73" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I82" s="73" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J82" s="73"/>
       <c r="K82" s="40"/>
@@ -8267,29 +8267,29 @@
         <v>11</v>
       </c>
       <c r="C83" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F83" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="73" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H83" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I83" s="73" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J83" s="73"/>
       <c r="K83" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="17.399999999999999">
@@ -8298,29 +8298,29 @@
         <v>12</v>
       </c>
       <c r="C84" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E84" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G84" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H84" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I84" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J84" s="35"/>
       <c r="K84" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:11" s="36" customFormat="1" ht="17.399999999999999">
@@ -8329,29 +8329,29 @@
         <v>13</v>
       </c>
       <c r="C85" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E85" s="72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F85" s="72" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="73" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H85" s="73" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I85" s="73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J85" s="73"/>
       <c r="K85" s="51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="17.399999999999999">
@@ -8360,29 +8360,29 @@
         <v>14</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E86" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G86" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H86" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I86" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J86" s="35"/>
       <c r="K86" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="17.399999999999999">
@@ -8390,29 +8390,29 @@
         <v>15</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D87" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E87" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F87" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G87" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H87" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I87" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J87" s="35"/>
       <c r="K87" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="17.399999999999999">
@@ -8420,25 +8420,25 @@
         <v>16</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D88" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E88" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F88" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G88" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="H88" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="I88" s="34" t="s">
         <v>211</v>
-      </c>
-      <c r="H88" s="34" t="s">
-        <v>134</v>
-      </c>
-      <c r="I88" s="34" t="s">
-        <v>212</v>
       </c>
       <c r="J88" s="35"/>
       <c r="K88" s="54"/>
@@ -8448,29 +8448,29 @@
         <v>17</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E89" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F89" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G89" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="H89" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I89" s="34" t="s">
         <v>213</v>
-      </c>
-      <c r="H89" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I89" s="34" t="s">
-        <v>214</v>
       </c>
       <c r="J89" s="35"/>
       <c r="K89" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="17.399999999999999">
@@ -8478,29 +8478,29 @@
         <v>18</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D90" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E90" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F90" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G90" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H90" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I90" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J90" s="35"/>
       <c r="K90" s="54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="17.399999999999999">
@@ -8508,25 +8508,25 @@
         <v>19</v>
       </c>
       <c r="C91" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E91" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F91" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H91" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I91" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J91" s="35"/>
       <c r="K91" s="54"/>
@@ -8536,144 +8536,144 @@
         <v>20</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D92" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F92" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G92" s="43" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H92" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I92" s="43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J92" s="44"/>
       <c r="K92" s="55" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="15.6" thickBot="1">
       <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11">
-      <c r="B94" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C94" s="89"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="85" t="s">
+      <c r="B94" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94" s="101"/>
+      <c r="D94" s="101"/>
+      <c r="E94" s="101"/>
+      <c r="F94" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="G94" s="95"/>
+      <c r="H94" s="95"/>
+      <c r="I94" s="95"/>
+      <c r="J94" s="95"/>
+      <c r="K94" s="96"/>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="B95" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C95" s="103"/>
+      <c r="D95" s="103"/>
+      <c r="E95" s="103"/>
+      <c r="F95" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="G94" s="86"/>
-      <c r="H94" s="86"/>
-      <c r="I94" s="86"/>
-      <c r="J94" s="86"/>
-      <c r="K94" s="87"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="B95" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="91"/>
-      <c r="F95" s="92" t="s">
+      <c r="G95" s="98"/>
+      <c r="H95" s="98"/>
+      <c r="I95" s="98"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="99"/>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="B96" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C96" s="103"/>
+      <c r="D96" s="103"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="91" t="s">
         <v>223</v>
       </c>
-      <c r="G95" s="93"/>
-      <c r="H95" s="93"/>
-      <c r="I95" s="93"/>
-      <c r="J95" s="93"/>
-      <c r="K95" s="94"/>
-    </row>
-    <row r="96" spans="1:11">
-      <c r="B96" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="91"/>
-      <c r="D96" s="91"/>
-      <c r="E96" s="91"/>
-      <c r="F96" s="95" t="s">
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="92"/>
+      <c r="K96" s="93"/>
+    </row>
+    <row r="97" spans="2:11">
+      <c r="B97" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C97" s="103"/>
+      <c r="D97" s="103"/>
+      <c r="E97" s="103"/>
+      <c r="F97" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="G96" s="96"/>
-      <c r="H96" s="96"/>
-      <c r="I96" s="96"/>
-      <c r="J96" s="96"/>
-      <c r="K96" s="97"/>
-    </row>
-    <row r="97" spans="2:11">
-      <c r="B97" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C97" s="91"/>
-      <c r="D97" s="91"/>
-      <c r="E97" s="91"/>
-      <c r="F97" s="95" t="s">
-        <v>225</v>
-      </c>
-      <c r="G97" s="96"/>
-      <c r="H97" s="96"/>
-      <c r="I97" s="96"/>
-      <c r="J97" s="96"/>
-      <c r="K97" s="97"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="93"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C98" s="91"/>
-      <c r="D98" s="91"/>
-      <c r="E98" s="91"/>
-      <c r="F98" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G98" s="96"/>
-      <c r="H98" s="96"/>
-      <c r="I98" s="96"/>
-      <c r="J98" s="96"/>
-      <c r="K98" s="97"/>
+      <c r="B98" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C98" s="103"/>
+      <c r="D98" s="103"/>
+      <c r="E98" s="103"/>
+      <c r="F98" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="93"/>
     </row>
     <row r="99" spans="2:11" ht="15">
       <c r="B99" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="46" t="s">
+      <c r="D99" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D99" s="46" t="s">
+      <c r="E99" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="F99" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F99" s="46" t="s">
+      <c r="G99" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G99" s="46" t="s">
+      <c r="H99" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H99" s="46" t="s">
+      <c r="I99" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I99" s="46" t="s">
+      <c r="J99" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J99" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K99" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:11" ht="15">
@@ -8687,23 +8687,23 @@
         <v>8</v>
       </c>
       <c r="E100" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G100" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H100" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I100" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J100" s="35"/>
       <c r="K100" s="39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="101" spans="2:11" ht="15">
@@ -8711,25 +8711,25 @@
         <v>2</v>
       </c>
       <c r="C101" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E101" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G101" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="H101" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="I101" s="34" t="s">
         <v>227</v>
-      </c>
-      <c r="H101" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="I101" s="34" t="s">
-        <v>228</v>
       </c>
       <c r="J101" s="35"/>
       <c r="K101" s="39"/>
@@ -8739,25 +8739,25 @@
         <v>3</v>
       </c>
       <c r="C102" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E102" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G102" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H102" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I102" s="34" t="s">
         <v>229</v>
-      </c>
-      <c r="H102" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="I102" s="34" t="s">
-        <v>230</v>
       </c>
       <c r="J102" s="35"/>
       <c r="K102" s="39"/>
@@ -8767,28 +8767,28 @@
         <v>4</v>
       </c>
       <c r="C103" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E103" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G103" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H103" s="34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I103" s="34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J103" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K103" s="40"/>
     </row>
@@ -8797,144 +8797,144 @@
         <v>5</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G104" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="H104" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="I104" s="43" t="s">
         <v>232</v>
-      </c>
-      <c r="H104" s="43" t="s">
-        <v>195</v>
-      </c>
-      <c r="I104" s="43" t="s">
-        <v>233</v>
       </c>
       <c r="J104" s="44"/>
       <c r="K104" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="15.6" thickBot="1">
       <c r="K105" s="36"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C106" s="89"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="G106" s="86"/>
-      <c r="H106" s="86"/>
-      <c r="I106" s="86"/>
-      <c r="J106" s="86"/>
-      <c r="K106" s="87"/>
+      <c r="B106" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" s="101"/>
+      <c r="D106" s="101"/>
+      <c r="E106" s="101"/>
+      <c r="F106" s="94" t="s">
+        <v>136</v>
+      </c>
+      <c r="G106" s="95"/>
+      <c r="H106" s="95"/>
+      <c r="I106" s="95"/>
+      <c r="J106" s="95"/>
+      <c r="K106" s="96"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C107" s="91"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="91"/>
-      <c r="F107" s="92" t="s">
-        <v>234</v>
-      </c>
-      <c r="G107" s="93"/>
-      <c r="H107" s="93"/>
-      <c r="I107" s="93"/>
-      <c r="J107" s="93"/>
-      <c r="K107" s="94"/>
+      <c r="B107" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" s="103"/>
+      <c r="D107" s="103"/>
+      <c r="E107" s="103"/>
+      <c r="F107" s="97" t="s">
+        <v>233</v>
+      </c>
+      <c r="G107" s="98"/>
+      <c r="H107" s="98"/>
+      <c r="I107" s="98"/>
+      <c r="J107" s="98"/>
+      <c r="K107" s="99"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" s="91"/>
-      <c r="D108" s="91"/>
-      <c r="E108" s="91"/>
-      <c r="F108" s="95" t="s">
+      <c r="B108" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="103"/>
+      <c r="D108" s="103"/>
+      <c r="E108" s="103"/>
+      <c r="F108" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="93"/>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="103"/>
+      <c r="D109" s="103"/>
+      <c r="E109" s="103"/>
+      <c r="F109" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G109" s="92"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="92"/>
+      <c r="J109" s="92"/>
+      <c r="K109" s="93"/>
+    </row>
+    <row r="110" spans="2:11">
+      <c r="B110" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="G108" s="96"/>
-      <c r="H108" s="96"/>
-      <c r="I108" s="96"/>
-      <c r="J108" s="96"/>
-      <c r="K108" s="97"/>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C109" s="91"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="91"/>
-      <c r="F109" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G109" s="96"/>
-      <c r="H109" s="96"/>
-      <c r="I109" s="96"/>
-      <c r="J109" s="96"/>
-      <c r="K109" s="97"/>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C110" s="91"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="91"/>
-      <c r="F110" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G110" s="96"/>
-      <c r="H110" s="96"/>
-      <c r="I110" s="96"/>
-      <c r="J110" s="96"/>
-      <c r="K110" s="97"/>
+      <c r="C110" s="103"/>
+      <c r="D110" s="103"/>
+      <c r="E110" s="103"/>
+      <c r="F110" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G110" s="92"/>
+      <c r="H110" s="92"/>
+      <c r="I110" s="92"/>
+      <c r="J110" s="92"/>
+      <c r="K110" s="93"/>
     </row>
     <row r="111" spans="2:11" ht="15">
       <c r="B111" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C111" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="63" t="s">
+      <c r="D111" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D111" s="63" t="s">
+      <c r="E111" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="E111" s="63" t="s">
+      <c r="F111" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="F111" s="63" t="s">
+      <c r="G111" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G111" s="63" t="s">
+      <c r="H111" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="H111" s="63" t="s">
+      <c r="I111" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="I111" s="63" t="s">
+      <c r="J111" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="J111" s="63" t="s">
-        <v>123</v>
-      </c>
       <c r="K111" s="64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="2:11" ht="15">
@@ -8948,23 +8948,23 @@
         <v>8</v>
       </c>
       <c r="E112" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F112" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G112" s="34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H112" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I112" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J112" s="35"/>
       <c r="K112" s="39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="2:11" ht="15">
@@ -8972,25 +8972,25 @@
         <v>2</v>
       </c>
       <c r="C113" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D113" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E113" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F113" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G113" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="H113" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="I113" s="69" t="s">
         <v>235</v>
-      </c>
-      <c r="H113" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="I113" s="69" t="s">
-        <v>236</v>
       </c>
       <c r="J113" s="35"/>
       <c r="K113" s="40"/>
@@ -9000,29 +9000,29 @@
         <v>3</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D114" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E114" s="58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F114" s="58" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="59" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H114" s="59" t="s">
         <v>9</v>
       </c>
       <c r="I114" s="70" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J114" s="59"/>
       <c r="K114" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="115" spans="2:11" ht="15.6" thickBot="1">
@@ -9030,10 +9030,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" s="60" t="s">
         <v>8</v>
@@ -9042,134 +9042,134 @@
         <v>8</v>
       </c>
       <c r="G115" s="61" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H115" s="61" t="s">
         <v>9</v>
       </c>
       <c r="I115" s="71" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J115" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="K115" s="68" t="s">
         <v>300</v>
-      </c>
-      <c r="K115" s="68" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="116" spans="2:11" ht="15.6" thickBot="1">
       <c r="K116" s="36"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="85" t="s">
+      <c r="B117" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="101"/>
+      <c r="D117" s="101"/>
+      <c r="E117" s="101"/>
+      <c r="F117" s="94" t="s">
+        <v>236</v>
+      </c>
+      <c r="G117" s="95"/>
+      <c r="H117" s="95"/>
+      <c r="I117" s="95"/>
+      <c r="J117" s="95"/>
+      <c r="K117" s="96"/>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="103"/>
+      <c r="D118" s="103"/>
+      <c r="E118" s="103"/>
+      <c r="F118" s="97" t="s">
         <v>237</v>
       </c>
-      <c r="G117" s="86"/>
-      <c r="H117" s="86"/>
-      <c r="I117" s="86"/>
-      <c r="J117" s="86"/>
-      <c r="K117" s="87"/>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C118" s="91"/>
-      <c r="D118" s="91"/>
-      <c r="E118" s="91"/>
-      <c r="F118" s="92" t="s">
+      <c r="G118" s="98"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="99"/>
+    </row>
+    <row r="119" spans="2:11">
+      <c r="B119" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
+      <c r="F119" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="G118" s="93"/>
-      <c r="H118" s="93"/>
-      <c r="I118" s="93"/>
-      <c r="J118" s="93"/>
-      <c r="K118" s="94"/>
-    </row>
-    <row r="119" spans="2:11">
-      <c r="B119" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C119" s="91"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="91"/>
-      <c r="F119" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="G119" s="96"/>
-      <c r="H119" s="96"/>
-      <c r="I119" s="96"/>
-      <c r="J119" s="96"/>
-      <c r="K119" s="97"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+      <c r="J119" s="92"/>
+      <c r="K119" s="93"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C120" s="91"/>
-      <c r="D120" s="91"/>
-      <c r="E120" s="91"/>
-      <c r="F120" s="95" t="s">
-        <v>239</v>
-      </c>
-      <c r="G120" s="96"/>
-      <c r="H120" s="96"/>
-      <c r="I120" s="96"/>
-      <c r="J120" s="96"/>
-      <c r="K120" s="97"/>
+      <c r="B120" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C120" s="103"/>
+      <c r="D120" s="103"/>
+      <c r="E120" s="103"/>
+      <c r="F120" s="91" t="s">
+        <v>238</v>
+      </c>
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
+      <c r="K120" s="93"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C121" s="91"/>
-      <c r="D121" s="91"/>
-      <c r="E121" s="91"/>
-      <c r="F121" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G121" s="96"/>
-      <c r="H121" s="96"/>
-      <c r="I121" s="96"/>
-      <c r="J121" s="96"/>
-      <c r="K121" s="97"/>
+      <c r="B121" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C121" s="103"/>
+      <c r="D121" s="103"/>
+      <c r="E121" s="103"/>
+      <c r="F121" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
+      <c r="K121" s="93"/>
     </row>
     <row r="122" spans="2:11" ht="15">
       <c r="B122" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C122" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C122" s="46" t="s">
+      <c r="D122" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D122" s="46" t="s">
+      <c r="E122" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E122" s="46" t="s">
+      <c r="F122" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F122" s="46" t="s">
+      <c r="G122" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G122" s="46" t="s">
+      <c r="H122" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H122" s="46" t="s">
+      <c r="I122" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I122" s="46" t="s">
+      <c r="J122" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J122" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K122" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="15">
@@ -9180,25 +9180,25 @@
         <v>8</v>
       </c>
       <c r="D123" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E123" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F123" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G123" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H123" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I123" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J123" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K123" s="40"/>
     </row>
@@ -9210,25 +9210,25 @@
         <v>8</v>
       </c>
       <c r="D124" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E124" s="42" t="s">
         <v>8</v>
       </c>
       <c r="F124" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G124" s="43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H124" s="43" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I124" s="43" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J124" s="43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K124" s="56"/>
     </row>
@@ -9236,115 +9236,115 @@
       <c r="K125" s="36"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="88" t="s">
-        <v>105</v>
-      </c>
-      <c r="C126" s="89"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="85" t="s">
+      <c r="B126" s="100" t="s">
+        <v>104</v>
+      </c>
+      <c r="C126" s="101"/>
+      <c r="D126" s="101"/>
+      <c r="E126" s="101"/>
+      <c r="F126" s="94" t="s">
+        <v>241</v>
+      </c>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="96"/>
+    </row>
+    <row r="127" spans="2:11">
+      <c r="B127" s="102" t="s">
+        <v>106</v>
+      </c>
+      <c r="C127" s="103"/>
+      <c r="D127" s="103"/>
+      <c r="E127" s="103"/>
+      <c r="F127" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="G126" s="86"/>
-      <c r="H126" s="86"/>
-      <c r="I126" s="86"/>
-      <c r="J126" s="86"/>
-      <c r="K126" s="87"/>
-    </row>
-    <row r="127" spans="2:11">
-      <c r="B127" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="C127" s="91"/>
-      <c r="D127" s="91"/>
-      <c r="E127" s="91"/>
-      <c r="F127" s="92" t="s">
+      <c r="G127" s="98"/>
+      <c r="H127" s="98"/>
+      <c r="I127" s="98"/>
+      <c r="J127" s="98"/>
+      <c r="K127" s="99"/>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" s="102" t="s">
+        <v>108</v>
+      </c>
+      <c r="C128" s="103"/>
+      <c r="D128" s="103"/>
+      <c r="E128" s="103"/>
+      <c r="F128" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G128" s="92"/>
+      <c r="H128" s="92"/>
+      <c r="I128" s="92"/>
+      <c r="J128" s="92"/>
+      <c r="K128" s="93"/>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C129" s="103"/>
+      <c r="D129" s="103"/>
+      <c r="E129" s="103"/>
+      <c r="F129" s="91" t="s">
         <v>243</v>
       </c>
-      <c r="G127" s="93"/>
-      <c r="H127" s="93"/>
-      <c r="I127" s="93"/>
-      <c r="J127" s="93"/>
-      <c r="K127" s="94"/>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="C128" s="91"/>
-      <c r="D128" s="91"/>
-      <c r="E128" s="91"/>
-      <c r="F128" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G128" s="96"/>
-      <c r="H128" s="96"/>
-      <c r="I128" s="96"/>
-      <c r="J128" s="96"/>
-      <c r="K128" s="97"/>
-    </row>
-    <row r="129" spans="2:11">
-      <c r="B129" s="90" t="s">
-        <v>111</v>
-      </c>
-      <c r="C129" s="91"/>
-      <c r="D129" s="91"/>
-      <c r="E129" s="91"/>
-      <c r="F129" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="G129" s="96"/>
-      <c r="H129" s="96"/>
-      <c r="I129" s="96"/>
-      <c r="J129" s="96"/>
-      <c r="K129" s="97"/>
+      <c r="G129" s="92"/>
+      <c r="H129" s="92"/>
+      <c r="I129" s="92"/>
+      <c r="J129" s="92"/>
+      <c r="K129" s="93"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="C130" s="91"/>
-      <c r="D130" s="91"/>
-      <c r="E130" s="91"/>
-      <c r="F130" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="G130" s="96"/>
-      <c r="H130" s="96"/>
-      <c r="I130" s="96"/>
-      <c r="J130" s="96"/>
-      <c r="K130" s="97"/>
+      <c r="B130" s="102" t="s">
+        <v>112</v>
+      </c>
+      <c r="C130" s="103"/>
+      <c r="D130" s="103"/>
+      <c r="E130" s="103"/>
+      <c r="F130" s="91" t="s">
+        <v>113</v>
+      </c>
+      <c r="G130" s="92"/>
+      <c r="H130" s="92"/>
+      <c r="I130" s="92"/>
+      <c r="J130" s="92"/>
+      <c r="K130" s="93"/>
     </row>
     <row r="131" spans="2:11" ht="15">
       <c r="B131" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="46" t="s">
+      <c r="D131" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="D131" s="46" t="s">
+      <c r="E131" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="E131" s="46" t="s">
+      <c r="F131" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="F131" s="46" t="s">
+      <c r="G131" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="G131" s="46" t="s">
+      <c r="H131" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H131" s="46" t="s">
+      <c r="I131" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="I131" s="46" t="s">
+      <c r="J131" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="J131" s="46" t="s">
-        <v>123</v>
-      </c>
       <c r="K131" s="48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="15">
@@ -9352,28 +9352,28 @@
         <v>1</v>
       </c>
       <c r="C132" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D132" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E132" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F132" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G132" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H132" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I132" s="34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J132" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K132" s="40"/>
     </row>
@@ -9382,28 +9382,28 @@
         <v>2</v>
       </c>
       <c r="C133" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D133" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E133" s="33" t="s">
         <v>8</v>
       </c>
       <c r="F133" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G133" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H133" s="34" t="s">
         <v>9</v>
       </c>
       <c r="I133" s="34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J133" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K133" s="40"/>
     </row>
@@ -9412,117 +9412,33 @@
         <v>3</v>
       </c>
       <c r="C134" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D134" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E134" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F134" s="42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G134" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H134" s="43" t="s">
         <v>9</v>
       </c>
       <c r="I134" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J134" s="44"/>
       <c r="K134" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="100">
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F30:K30"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F31:K31"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F61:K61"/>
-    <mergeCell ref="F67:K67"/>
-    <mergeCell ref="F68:K68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F69:K69"/>
-    <mergeCell ref="F70:K70"/>
-    <mergeCell ref="F71:K71"/>
-    <mergeCell ref="B94:E94"/>
-    <mergeCell ref="B95:E95"/>
-    <mergeCell ref="B96:E96"/>
-    <mergeCell ref="F94:K94"/>
-    <mergeCell ref="F95:K95"/>
-    <mergeCell ref="F96:K96"/>
-    <mergeCell ref="B97:E97"/>
-    <mergeCell ref="B98:E98"/>
-    <mergeCell ref="B106:E106"/>
-    <mergeCell ref="F97:K97"/>
-    <mergeCell ref="F98:K98"/>
-    <mergeCell ref="F106:K106"/>
-    <mergeCell ref="F129:K129"/>
-    <mergeCell ref="F130:K130"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="B130:E130"/>
-    <mergeCell ref="B110:E110"/>
-    <mergeCell ref="B117:E117"/>
-    <mergeCell ref="B118:E118"/>
-    <mergeCell ref="F110:K110"/>
-    <mergeCell ref="F117:K117"/>
-    <mergeCell ref="F118:K118"/>
-    <mergeCell ref="F121:K121"/>
-    <mergeCell ref="F120:K120"/>
-    <mergeCell ref="F119:K119"/>
-    <mergeCell ref="F2:K2"/>
-    <mergeCell ref="F3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="F6:K6"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="B126:E126"/>
     <mergeCell ref="B127:E127"/>
@@ -9539,6 +9455,90 @@
     <mergeCell ref="F107:K107"/>
     <mergeCell ref="F108:K108"/>
     <mergeCell ref="F109:K109"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F129:K129"/>
+    <mergeCell ref="F130:K130"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="B130:E130"/>
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B117:E117"/>
+    <mergeCell ref="B118:E118"/>
+    <mergeCell ref="F110:K110"/>
+    <mergeCell ref="F117:K117"/>
+    <mergeCell ref="F118:K118"/>
+    <mergeCell ref="F121:K121"/>
+    <mergeCell ref="F120:K120"/>
+    <mergeCell ref="F119:K119"/>
+    <mergeCell ref="B97:E97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F97:K97"/>
+    <mergeCell ref="F98:K98"/>
+    <mergeCell ref="F106:K106"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="B96:E96"/>
+    <mergeCell ref="F94:K94"/>
+    <mergeCell ref="F95:K95"/>
+    <mergeCell ref="F96:K96"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F69:K69"/>
+    <mergeCell ref="F70:K70"/>
+    <mergeCell ref="F71:K71"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F61:K61"/>
+    <mergeCell ref="F67:K67"/>
+    <mergeCell ref="F68:K68"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F31:K31"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F30:K30"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
